--- a/原始数据/物体扫描记录.xlsx
+++ b/原始数据/物体扫描记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16860" windowHeight="6480"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>类别</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>67h7</t>
+  </si>
+  <si>
+    <t>笔记本电脑（更新数据）</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1QKLV9Yb5W1vzr3bbvYYVgQ</t>
   </si>
   <si>
     <t>水桶</t>
@@ -115,7 +121,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,73 +149,59 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,10 +230,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,6 +245,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +269,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,21 +474,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,11 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +557,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -580,157 +579,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,16 +1085,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1106,7 +1102,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1117,7 +1113,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1128,7 +1124,7 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1139,7 +1135,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1150,29 +1146,29 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
+      <c r="C5" s="1">
+        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1234</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -1183,43 +1179,54 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+      <c r="C8" s="1">
+        <v>1234</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
         <v>1234</v>
       </c>
     </row>
@@ -1228,13 +1235,14 @@
     <hyperlink ref="B2" r:id="rId1" display="https://pan.baidu.com/s/1yIjq_WPVHCsirRyRMG5DSA"/>
     <hyperlink ref="B3" r:id="rId2" display="https://pan.baidu.com/s/1lBRDchL0Z9E9-Jw9_YEAqg"/>
     <hyperlink ref="B4" r:id="rId3" display="https://pan.baidu.com/s/1Ar0QGyTIXFpKAnBBHDyqPg"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://pan.baidu.com/s/1jE-NaccFMA1JkE3vsQB7nw"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://pan.baidu.com/s/1upxPTVG1Q_zBVVjKvG8Gsw" tooltip="https://pan.baidu.com/s/1upxPTVG1Q_zBVVjKvG8Gsw"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://pan.baidu.com/s/1xWkkro8_iPRb2FmTlrEPvA"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://pan.baidu.com/s/15bqjbop1UDdnndl2eOOPew "/>
-    <hyperlink ref="B10" r:id="rId8" display="https://pan.baidu.com/s/1rN1a9jINzcjGgrSKpKrxTw "/>
-    <hyperlink ref="B11" r:id="rId9" display="https://pan.baidu.com/s/12N-0YHed_Idbk2wEgU4FEg "/>
-    <hyperlink ref="B7" r:id="rId10" display="https://pan.baidu.com/s/1ofee_VcpMNCKudueKE8xuA" tooltip="https://pan.baidu.com/s/1ofee_VcpMNCKudueKE8xuA"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://pan.baidu.com/s/1jE-NaccFMA1JkE3vsQB7nw"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://pan.baidu.com/s/1upxPTVG1Q_zBVVjKvG8Gsw" tooltip="https://pan.baidu.com/s/1upxPTVG1Q_zBVVjKvG8Gsw"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://pan.baidu.com/s/1xWkkro8_iPRb2FmTlrEPvA" tooltip="https://pan.baidu.com/s/1xWkkro8_iPRb2FmTlrEPvA"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://pan.baidu.com/s/15bqjbop1UDdnndl2eOOPew "/>
+    <hyperlink ref="B11" r:id="rId8" display="https://pan.baidu.com/s/1rN1a9jINzcjGgrSKpKrxTw "/>
+    <hyperlink ref="B12" r:id="rId9" display="https://pan.baidu.com/s/12N-0YHed_Idbk2wEgU4FEg "/>
+    <hyperlink ref="B8" r:id="rId10" display="https://pan.baidu.com/s/1ofee_VcpMNCKudueKE8xuA" tooltip="https://pan.baidu.com/s/1ofee_VcpMNCKudueKE8xuA"/>
+    <hyperlink ref="B5" r:id="rId11" display="https://pan.baidu.com/s/1QKLV9Yb5W1vzr3bbvYYVgQ" tooltip="https://pan.baidu.com/s/1QKLV9Yb5W1vzr3bbvYYVgQ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1251,7 +1259,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1268,7 +1276,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/原始数据/物体扫描记录.xlsx
+++ b/原始数据/物体扫描记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>类别</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://pan.baidu.com/s/12N-0YHed_Idbk2wEgU4FEg </t>
+  </si>
+  <si>
+    <t>【补拍】碗20，碗33</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1VDF-WLXPyHrEhiD81G6T1g</t>
+  </si>
+  <si>
+    <t>dw9k</t>
+  </si>
+  <si>
+    <t>【补拍】瓶子10，瓶子33</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1-ZmVNPhAb_uTWnhN-R-7zw</t>
+  </si>
+  <si>
+    <t>79pw</t>
   </si>
 </sst>
 </file>
@@ -118,8 +136,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,36 +172,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +223,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -213,47 +246,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,103 +301,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,79 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +492,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,36 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +558,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -582,28 +600,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,112 +633,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,15 +1103,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
@@ -1228,6 +1246,28 @@
       </c>
       <c r="C12" s="1">
         <v>1234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
